--- a/biology/Zoologie/Garypus_decolor/Garypus_decolor.xlsx
+++ b/biology/Zoologie/Garypus_decolor/Garypus_decolor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Garypus decolor est une espèce de pseudoscorpions de la famille des Garypidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Quintana Roo au Mexique[1]. Elle se rencontre vers Cancún.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Quintana Roo au Mexique. Elle se rencontre vers Cancún.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Muchmore, 1991 : Pseudoscorpionida. Diversidad biológica en la Reserva de la Biosfera de Sian Ka'an Quintana Roo, México. Diversidad biológica en la Reserva de la Biosfera de Sian Ka'an Quintana Roo, México. Chetumal, p. 155-173.</t>
         </is>
